--- a/rfworkdata.xlsx
+++ b/rfworkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI project\RF Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1453073A-94A9-4889-A074-72FE3C86FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD90955-33B3-42F1-8CA1-BD2FF086B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="429">
   <si>
     <t>Region</t>
   </si>
@@ -1291,6 +1291,60 @@
   <si>
     <t>TaskStatus</t>
   </si>
+  <si>
+    <t>NPS-GSM Cell Optimization and RF Parameter Changes for daily maintenance.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indoor coverage issue complain from customer of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Office of Auditor General</t>
+    </r>
+  </si>
+  <si>
+    <t>Pabitra Nagar Kathmandu</t>
+  </si>
+  <si>
+    <t>House Owner Complain</t>
+  </si>
+  <si>
+    <t>Existing site relocation as per owner request and new house around 200m was surveyed for the RTT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Office of Auditor General</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kalikasthan</t>
+    </r>
+  </si>
+  <si>
+    <t>KTM755_GONGABU PABITRANAGAR</t>
+  </si>
 </sst>
 </file>
 
@@ -1299,11 +1353,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1367,6 +1428,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1382,7 +1456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1529,59 +1603,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,22 +1657,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1617,6 +1706,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3413,70 +3510,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45447.53871458333" refreshedVersion="8" recordCount="215" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P216" sheet="RF"/>
-  </cacheSource>
-  <cacheFields count="16">
-    <cacheField name="S.N." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="215"/>
-    </cacheField>
-    <cacheField name="TaskCategory" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Region" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Site/Location" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ParentSite" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Address" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Lat" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="27.548224000000001" maxValue="28.255264"/>
-    </cacheField>
-    <cacheField name="Lon" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="85.366857999999993" maxValue="85.400718999999995"/>
-    </cacheField>
-    <cacheField name="TaskType" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Task Description" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Band" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="TaskStatus" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Transmission" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Scope" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-05-05T00:00:00" maxDate="2024-05-23T00:00:00"/>
-    </cacheField>
-    <cacheField name="Remarks/Recomendation" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45447.538714699076" refreshedVersion="8" recordCount="185" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45452.635846643519" refreshedVersion="8" recordCount="185" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O186" sheet="RF"/>
   </cacheSource>
@@ -3535,7 +3569,3220 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45452.635846874997" refreshedVersion="8" recordCount="215" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:P216" sheet="RF"/>
+  </cacheSource>
+  <cacheFields count="16">
+    <cacheField name="S.N." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="215"/>
+    </cacheField>
+    <cacheField name="TaskCategory" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Site/Location" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ParentSite" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Address" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Lat" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="27.548224000000001" maxValue="28.255264"/>
+    </cacheField>
+    <cacheField name="Lon" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="85.229735000000005" maxValue="85.409790000000001"/>
+    </cacheField>
+    <cacheField name="TaskType" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Task Description" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Band" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="TaskStatus" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Transmission" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Scope" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-05-05T00:00:00" maxDate="2024-05-23T00:00:00"/>
+    </cacheField>
+    <cacheField name="Remarks/Recomendation" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="185">
+  <r>
+    <n v="1"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR474_Sunawal"/>
+    <s v="WDR474_Sunawal"/>
+    <s v="Sunawal"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="2G 900MHz"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR013_Jaluke"/>
+    <s v="WDR013_Jaluke"/>
+    <s v="Arghakhachi"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="2G 900MHz"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="Nawalparasi"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="900MHz"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-SUN"/>
+    <s v="CDR465_RAMCHE"/>
+    <s v="CDR465_RAMCHE"/>
+    <s v="Ramche Rasuwa"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="900 MHZ"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="CDR123_Gajuri"/>
+    <s v="CDR123_Gajuri"/>
+    <s v="Dhading"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Naagdhunga Tunnel"/>
+    <s v="New Site Plan"/>
+    <s v="Dhading"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="2 Sector"/>
+    <s v="2G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="Daunne"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Naagdhunga Tunnel"/>
+    <s v="New Site Plan"/>
+    <s v="Dhading, Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-HTD"/>
+    <s v="CDR099_Ramnagar"/>
+    <s v="CDR099_Ramnagar"/>
+    <s v="Chitwan"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Sanjen Hydro"/>
+    <m/>
+    <s v="Rasuwa"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="World Bank Group"/>
+    <m/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="World Bank Group"/>
+    <m/>
+    <s v="Durbarmarg"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Network Quality Improvement"/>
+    <s v="WDR-POK"/>
+    <s v="Ghiring Rural Municipality"/>
+    <m/>
+    <s v="Tanahu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Mahotsav Restaurant"/>
+    <m/>
+    <s v="Laldurbar Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Trishuli 3A Office"/>
+    <m/>
+    <s v="Nuwakot"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Infinity Mall"/>
+    <m/>
+    <s v="Gongabu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Police Hospital"/>
+    <m/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="CCSI"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Eagle Logistic"/>
+    <m/>
+    <s v="Chhetrapati"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Himalayan Bank"/>
+    <m/>
+    <s v="Bishalbazar"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Network Quality Improvement"/>
+    <s v="WDR-POK"/>
+    <s v="Dulegauda Nagarpalika"/>
+    <m/>
+    <s v="Dulegauda"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Tandoori Fast Food Café"/>
+    <m/>
+    <s v="Newroad"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="GBIME"/>
+    <m/>
+    <s v="Kamaladi"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Park Village Resort"/>
+    <m/>
+    <s v="Budhanilkantha"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Square Hotel"/>
+    <m/>
+    <s v="Pulchwok, Lalitpur"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Radission Hotel"/>
+    <m/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Standard Chartered Bank"/>
+    <m/>
+    <s v="Baneswore, Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Madhya Bhotekoshi"/>
+    <m/>
+    <s v="Sindhupalchwok"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Department of Road"/>
+    <m/>
+    <s v="Babarmahal Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Samanya Prasasan Mantralaya"/>
+    <m/>
+    <s v="Singhdurbar"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Bidhan Bista"/>
+    <m/>
+    <s v="Jhamsikhel"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Green Law Firm (Action)"/>
+    <m/>
+    <s v="Putalisadak"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Bindu Suwal"/>
+    <m/>
+    <s v="Choche, Bhaktapur"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="MWDR"/>
+    <s v="Jajarkot Rimna"/>
+    <s v="MWDR098-NT jajarkot"/>
+    <s v="Rimna"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="2G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Prime Minister Office"/>
+    <s v="KTM289-Singhadurbar"/>
+    <s v="Singhdurbar"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Godawari Conference Hall"/>
+    <s v="KTM445-GodawariKunda"/>
+    <s v="Godawari"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Switzerland Park"/>
+    <s v="KTM146"/>
+    <s v="Indrasthan"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Siddhalek 07, Pipaltar, Dhading"/>
+    <s v="CDR123"/>
+    <s v="Gajuri"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Army Training Center"/>
+    <s v="CDR625_Zerokilo"/>
+    <s v="Paanch Khal"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Alle Barrack"/>
+    <s v="CDR102-Alle Barrack"/>
+    <s v="Shivapuri National Park"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="2G/4G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Ranjana Trade Mall"/>
+    <s v="KTM099_CrystalHotel"/>
+    <s v="Bishal Bazar"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Radhe Radhe"/>
+    <s v="KTM043"/>
+    <s v="Thimi"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Ullens School"/>
+    <s v="KTM345_Dholahiti"/>
+    <s v="Satdobato, Lalitpur"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="CG Hotel And Resort"/>
+    <s v="KTM383_SachalSanepa"/>
+    <s v="Jhamsikhel"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Timure Bazar"/>
+    <m/>
+    <s v="Rasuwa"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="MWDR"/>
+    <s v="Guranse Nagarpalika"/>
+    <m/>
+    <s v="Dailekh"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="1800MHz"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Panchkhal Army Camp"/>
+    <s v="CDR625_Zerokilo"/>
+    <s v="Kabhre"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="District Court Bhaktapur"/>
+    <s v="KTM688-Chokha"/>
+    <s v="Libali"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Sankata Club"/>
+    <s v="KTM742-Nepal Airlines"/>
+    <s v="Tehbhal Sankata"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Akash Galli"/>
+    <s v="KTM299-NTSundhara"/>
+    <s v=" Sundhara"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Army Training Center"/>
+    <s v="CDR625_Zerokilo"/>
+    <s v="Paanch Khal"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="3"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Manmohan Cardiology"/>
+    <s v="KTM200-Maharajgunj1"/>
+    <s v="Maharajgunj"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="NIMB"/>
+    <s v="KTM225-Narayanhitipalace"/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="2"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Green Law Firm"/>
+    <s v="KTM174_Khasibazar"/>
+    <s v="Putalisadak"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Civil Hospital"/>
+    <s v="KTM237_NewBaneshworChowk"/>
+    <s v="Minbhawan"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Santenswor Temple"/>
+    <m/>
+    <s v="Bajrabarahi, Lalitpur"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="NAC"/>
+    <m/>
+    <s v="Sinamangal"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="4"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Mercur Hotle"/>
+    <m/>
+    <s v="Sukhedhara"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Siddhartha Hotel"/>
+    <m/>
+    <s v="Chumlingtar"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Hams Hospital"/>
+    <m/>
+    <s v="Mandikhatar"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="2"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-HTD"/>
+    <s v="Hetauda Hospital"/>
+    <m/>
+    <s v="Hetauda"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-HTD"/>
+    <s v="Churia Mai Temple"/>
+    <m/>
+    <s v="Hetauda"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Furke Khola"/>
+    <m/>
+    <s v="Dhading"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Hilton Hotel"/>
+    <m/>
+    <s v="Naxal"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Kanti Children Hospital"/>
+    <m/>
+    <s v="Maharajgunj"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Nabil Bank"/>
+    <m/>
+    <s v="Sallaghari"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Royal Resort"/>
+    <m/>
+    <s v="Shivapuri National Park"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Trade Tower"/>
+    <m/>
+    <s v="Maitighar"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <m/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Panchkhal Army Camp"/>
+    <m/>
+    <s v="Kabhre"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="2 Sector"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Doleshwor Temple"/>
+    <s v="KTM390-sipadole"/>
+    <s v="Sipadol"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Sky Walk Wonder Nepal"/>
+    <s v="KTM604"/>
+    <s v="Kamaladi"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Hotel Mount Fuji"/>
+    <s v="KTM299-NTSundhara"/>
+    <s v="Sundhara"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Tamrakar House"/>
+    <s v="KTM099_CrystalHotel"/>
+    <s v="Newroad"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Network Quality Test"/>
+    <s v="FWDR"/>
+    <s v="Bhimdatta Mahendranagar"/>
+    <m/>
+    <s v="Bhimdatta"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Ghubhakot Municipality and Ramghat"/>
+    <m/>
+    <s v="Ghubhakot, Ramghat"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Network Quality Test"/>
+    <s v="FWDR"/>
+    <s v="Kailari Ratnapur Area"/>
+    <m/>
+    <s v="Kailari"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Network Quality Test"/>
+    <s v="FWDR"/>
+    <s v="Bajura"/>
+    <m/>
+    <s v="Bajure"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Kohalpur-Birendranagar Highway"/>
+    <m/>
+    <s v="Kohalpur-Birendranagar"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Baglung"/>
+    <m/>
+    <s v="Baglung"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Pokhara-Butwal Highway"/>
+    <m/>
+    <s v="Pokhara-Butwal"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Bhairahawa Village"/>
+    <m/>
+    <s v="Bhairahawa"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Rolpa"/>
+    <m/>
+    <s v="Rolpa"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Pyuthan"/>
+    <m/>
+    <s v="Pyuthan"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
+    <m/>
+    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Besisahar City"/>
+    <m/>
+    <s v="Besisahar City"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Third Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="Network Quality Test"/>
+    <s v="KTM "/>
+    <s v="KTM Valley DT"/>
+    <m/>
+    <s v="Kathmandu Bhaktapur Lalitpur "/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR"/>
+    <s v="Bharatpur"/>
+    <m/>
+    <s v="Bharatpur City"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Prithvi Highway"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR"/>
+    <s v="Mugling- Bharatpur Highway"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR +EDR"/>
+    <s v="Mahendra Highway (Bharatpur-Kakadvitta)"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR+WDR"/>
+    <s v="Kathmandu to Butwal Highway"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Highway Coverage Test"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="Network Quality Test"/>
+    <s v="KTM"/>
+    <s v="Kathmandu Ringroad DT"/>
+    <m/>
+    <s v="City Roads"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Ringroad Coverage Test"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="Network Expansion"/>
+    <s v="KTM"/>
+    <s v="Gongabu Ganesthan"/>
+    <m/>
+    <s v="Gongabu Ganeshthan"/>
+    <m/>
+    <m/>
+    <s v="Site Survey"/>
+    <s v="Site Survey"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="Network Expansion"/>
+    <s v="KTM"/>
+    <s v="Kirtipur Tyangla Phat"/>
+    <m/>
+    <s v="Kirtipur Tyangla Phat"/>
+    <m/>
+    <m/>
+    <s v="Site Survey"/>
+    <s v="Site Survey"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="Network Expansion"/>
+    <s v="KTM"/>
+    <s v="Shankarapur Wardno 4"/>
+    <m/>
+    <s v="Shankarapur Municipalit"/>
+    <m/>
+    <m/>
+    <s v="Site Survey"/>
+    <s v="Site Survey"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily maintenance and Cell parameter changes for Pkg A and B Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-02T00:00:00"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-July 2023"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-12T00:00:00"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-20T00:00:00"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for PS Call Drop Optimization in CDRHTD and CDRTTC UMTS Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation Solution for TRX Addition and GSM Congestion Optimization in PKG-A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for WCDMA Networks of Package-A and B July _Monthly."/>
+    <m/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-August 2023"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for UL Power Congestion Optimization in Pkg A Network"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-07T00:00:00"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-14T00:00:00"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-26T00:00:00"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-27T00:00:00"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="WCDMA Implementation solution for Daily Maintenance and Cell Parameter Changes- August"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-02T00:00:00"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A Monthly- 2023"/>
+    <m/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit FWDR ATRHBSC09"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-04T00:00:00"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit FWDR ATRHMBSC04"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-11T00:00:00"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit MWDR NPJHBSC10"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-11T00:00:00"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in TTCHMBSC02"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-11T00:00:00"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit MWDR NPJHMBSC05"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit for HTDHBSC07"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit CDR TTCHMBSC02"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit for HTDHBSC08"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit CDR HTDHMBSC03"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-24T00:00:00"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit BRTHBSC11"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHBSC07"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-30T00:00:00"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit for BRTHMBSC06"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-30T00:00:00"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit for NPJHMBSC05"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit ATRHMBSC04"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHMBSC03"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit BRTHMBSC06"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-12T00:00:00"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit TTCHMBSC02"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-12T00:00:00"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit HTDHMBSC03"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-14T00:00:00"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-21T00:00:00"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHBSC10"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHBSC09"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHMBSC05"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHMBSC04"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Optimization of TBF Establishments Failure Due to No Channel"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-27T00:00:00"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Optimization of TBF Establishments Failure Due to No Channel in CDR region"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Optimization of TBF Establishments Failure Due to No Channel in FWDR"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-25T00:00:00"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance january 2024"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance february 2024"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-31T00:00:00"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS 3G Cell Optimization and RF Parameter Changes Monthly"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - 2G Data Drop Optimization in EDR region"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-02T00:00:00"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance march month 2024"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-2g Automatic TRX Shutdown disable in Additional Sites"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-13T00:00:00"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit Additional Site Package-A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-14T00:00:00"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-2G Neighbor Audit Additional Site Package-B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - Implementation Solution for 2G Data Drop Optimisation in TTCHBSC02."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-26T00:00:00"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Data Drop Optimization in KTM"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - UMTS Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-19T00:00:00"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Data Drop Optimization in BRTHMBSC11 of EDR Region"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-19T00:00:00"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-19T00:00:00"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-26T00:00:00"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Optimization of Uplink and Downlink Power congestion of Package-A Network"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-05-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <s v="Network RF Complain "/>
+    <s v="KTM"/>
+    <s v="Kyonjosym Municipality Lalitpur"/>
+    <m/>
+    <s v="Kyonjosym Municipality Lalitpur"/>
+    <n v="27.548224000000001"/>
+    <n v="85.400718999999995"/>
+    <s v="RF Parameter Optimization"/>
+    <s v="TRX Power increament 2G 3G"/>
+    <s v="2G 3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <d v="2024-05-20T00:00:00"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <s v="Network RF Complain "/>
+    <s v="CDR"/>
+    <s v="Timure Rashuwagadhi"/>
+    <m/>
+    <s v="Rasuwagadhi"/>
+    <n v="28.255264"/>
+    <n v="85.366857999999993"/>
+    <s v="Sector Expansion Survey "/>
+    <s v="Sector Expansion"/>
+    <s v="2G 3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-05-22T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="215">
   <r>
     <n v="1"/>
@@ -6874,8 +10121,8 @@
     <s v="Beshi Gaun Laligurash Tole Customer Complain"/>
     <m/>
     <s v="Beshi Gaun Laligurash Tole Customer Complain"/>
-    <s v="27.729768°"/>
-    <s v="85.382122°"/>
+    <n v="27.729768"/>
+    <n v="85.382121999999995"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="Azimuth of KTM233_NepalMedicalCollege-B changed from 95 to 120"/>
     <s v="2G 3G"/>
@@ -6892,8 +10139,8 @@
     <s v="Gothatar Khadaghari Complain"/>
     <m/>
     <s v="Gothatar Khadaghari Complain"/>
-    <s v="27.701765°"/>
-    <s v="85.378219°"/>
+    <n v="27.701765000000002"/>
+    <n v="85.378219000000001"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="Electrical Tilt of KTM172_Khadkagaon_C changed from 6 to 3 &gt;Electrical Tilt of KTM605_ForceParkBusstop_R changed from 5 to 2"/>
     <s v="2G 3G"/>
@@ -6910,8 +10157,8 @@
     <s v="Grihini Foods Udhyog Customer Complain"/>
     <m/>
     <s v="Grihini Foods Udhyog Customer Complain"/>
-    <s v="27.696658°"/>
-    <s v="85.351927°"/>
+    <n v="27.696657999999999"/>
+    <n v="85.351927000000003"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and azimuth of KTM172_Khadkagaon_C changed from 2 to 1 and from 145 to 155 &gt;Azimuth of KTM290_SitaAirOmnagar-Q changed from 150 to 160"/>
     <s v="2G 3G"/>
@@ -6928,8 +10175,8 @@
     <s v="HAMRO COLONY CUSTOMER COMPLAIN"/>
     <m/>
     <s v="HAMRO COLONY CUSTOMER COMPLAIN"/>
-    <s v="27.660391°"/>
-    <s v="85.337520°"/>
+    <n v="27.660391000000001"/>
+    <n v="85.337519999999998"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Mechanical Tilt and azimuth of KTM910_Bodhigram2-C changed from 3 to 2 and from 250 to 260 &gt;Mechanical Tilt and Electrical Tilt of KTM365_KrishnaMandirImadol-R changed from 4 to 2 and 3 to 2"/>
     <s v="2G 3G"/>
@@ -6946,8 +10193,8 @@
     <s v="KAMEROTAR AREA CUSTOMER COMPLAIN"/>
     <m/>
     <s v="KAMEROTAR AREA CUSTOMER COMPLAIN"/>
-    <s v="27.677953°"/>
-    <s v="85.393006°"/>
+    <n v="27.677952999999999"/>
+    <n v="85.393006"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Mechanical Tilt and azimuth of Ktm026_Sichuhani-B/E changed from 8 to 2 and 115 to 100 &gt;Mechanical Tilt of Ktm026_Sichuhani-Q from 2 to 0 &gt;Electrical Tilt of Ktm670_Tahanani-Q from 3 to 2"/>
     <s v="2G 3G"/>
@@ -6964,8 +10211,8 @@
     <s v="NABIL BANK CUSTOMER COMPLAIN"/>
     <m/>
     <s v="NABIL BANK CUSTOMER COMPLAIN"/>
-    <s v="27.669819°"/>
-    <s v="85.409790°"/>
+    <n v="27.669819"/>
+    <n v="85.409790000000001"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Mechanical Tilt and Electrical Tilt of KTM035_Sallaghari-B changed from 1 to 2 and 2 to 4 &gt;Mechanical Tilt and azimuth of KTM035_Sallaghari-Q changed from 1 to 2 and from 105 to 120"/>
     <s v="2G 3G"/>
@@ -6982,8 +10229,8 @@
     <s v="NEAR SUMMIT HOTEL CUSTOMER COMPLAIN"/>
     <m/>
     <s v="NEAR SUMMIT HOTEL CUSTOMER COMPLAIN"/>
-    <s v="27.685714°"/>
-    <s v="85.312454°"/>
+    <n v="27.685714000000001"/>
+    <n v="85.312454000000002"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Network Coveage and quality seems good"/>
     <s v="2G 3G"/>
@@ -7000,8 +10247,8 @@
     <s v="PIPALBOT NEWROAD CUSTOMER COMPLAIN"/>
     <m/>
     <s v="PIPALBOT NEWROAD CUSTOMER COMPLAIN"/>
-    <s v="27.703225°"/>
-    <s v="85.310374°"/>
+    <n v="27.703225"/>
+    <n v="85.310373999999996"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt of KTM099_CrystalHotel-B changed from 5 to 3 &gt;Mecanical Tilt of KTM099_CrystalHotel-Q changed from 1 to 2"/>
     <s v="2G 3G"/>
@@ -7018,8 +10265,8 @@
     <s v="Sagarmatha Pipal Tole Custumer Complain"/>
     <m/>
     <s v="Sagarmatha Pipal Tole Custumer Complain"/>
-    <s v="27.743993°"/>
-    <s v="85.386161°"/>
+    <n v="27.743993"/>
+    <n v="85.386161000000001"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt of KTM168_KapanPhulbari_B changed from 5 to 3 &gt;Electrical Tilt of KTM168_KapanPhulbari_Q changed from 10 to 6 &gt;Pilot Power of KTM129_Gokarneswor_P changed from 33dbm to 34dbm"/>
     <s v="2G 3G"/>
@@ -7036,8 +10283,8 @@
     <s v="SICHUAN HOTEL CUSTOMER COMPLAIN"/>
     <m/>
     <s v="SICHUAN HOTEL CUSTOMER COMPLAIN"/>
-    <s v="27.711439°"/>
-    <s v="85.314202°"/>
+    <n v="27.711438999999999"/>
+    <n v="85.314201999999995"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Azimuth of KTM233_NepalMedicalCollege-B changed from 290 to 300 &gt;Electrical Tilt, Mechanical Tilt and azimuth of KTM165_Kantipath-R changed from 3 to 2, 1 to 2 and 255 to 275"/>
     <s v="2G 3G"/>
@@ -7054,8 +10301,8 @@
     <s v="Silauto Resort Areas Customer Complain"/>
     <m/>
     <s v="Silauto Resort Areas Customer Complain"/>
-    <s v="27.716018°"/>
-    <s v="85.229735°"/>
+    <n v="27.716017999999998"/>
+    <n v="85.229735000000005"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Azimuth of KTM146_G_Indrasthan Expansion changed from 25 to 15"/>
     <s v="2G 3G"/>
@@ -7072,8 +10319,8 @@
     <s v="Siphal Customer Complain"/>
     <m/>
     <s v="Siphal Customer Complain"/>
-    <s v="27.713210°"/>
-    <s v="85.340003°"/>
+    <n v="27.71321"/>
+    <n v="85.340002999999996"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt, Mechanical Tilt and azimuth of KTM633_Sano_Gaucharan_B changed from 4 to 2, 3 to 0 and 125 to 110 &gt;Electrical Tilt, Mechanical Tilt and azimuth of KTM633_Sano_Gaucharan_Q changed from 3 to 2, 2 to 1 and 130 to 110"/>
     <s v="2G 3G"/>
@@ -7090,8 +10337,8 @@
     <s v="SS Chowk Customer Complain"/>
     <m/>
     <s v="SS Chowk Customer Complain"/>
-    <s v="27.672102°"/>
-    <s v="85.390441°"/>
+    <n v="27.672101999999999"/>
+    <n v="85.390440999999996"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Mechanical Tilt and azimuth of KTM043_THIMI-A changed from 3 to 2 and 75 to 110 &gt;Mechanical Tilt and azimuth of KTM043_THIMI-C changed from 5 to 3 and 330 to 0 &gt;Mechanical Tilt and azimuth of KTM043_THIMI-C changed from 5 to 3 and 340 to 10"/>
     <s v="2G 3G"/>
@@ -7108,8 +10355,8 @@
     <s v="SundarBasti Customer Complain"/>
     <m/>
     <s v="SundarBasti Customer Complain"/>
-    <s v="27.749871°"/>
-    <s v="85.354505°"/>
+    <n v="27.749870999999999"/>
+    <n v="85.354505000000003"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt of KTM166_KapanLasumtar-C changed from 8 to 2 &gt;Electrical Tilt and azimuth of KTM166_KapanLasumtar-P changed from 6 to 3 and 325 to 305"/>
     <s v="2G 3G"/>
@@ -7126,8 +10373,8 @@
     <s v="Gokarna Ward 9 Customer Complain"/>
     <m/>
     <s v="Gokarna Ward 9 Customer Complain"/>
-    <s v="27.736552°"/>
-    <s v="85.375209°"/>
+    <n v="27.736552"/>
+    <n v="85.375208999999998"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and Azimuth of KTM168_KapanPhulbari –B changed from 5 to 3 and 130 to 120 &gt;Electrical Tilt and Azimuth of KTM168_KapanPhulbari –Q changed from 10 to 6 and 120 to 110"/>
     <s v="2G 3G"/>
@@ -7144,8 +10391,8 @@
     <s v="Himali Marg Customer Complain"/>
     <m/>
     <s v="Himali Marg Customer Complain"/>
-    <s v="27.679916°"/>
-    <s v="85.346469°"/>
+    <n v="27.679915999999999"/>
+    <n v="85.346468999999999"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt of KTM180_Koteshwor-C changed from 3 to 2 &gt;Electrical Tilt of KTM180_Koteshwor-R changed from 5 to 3"/>
     <s v="2G 3G"/>
@@ -7162,8 +10409,8 @@
     <s v="B.G. Fiber Play Bhangal Kapan Customer Complain"/>
     <m/>
     <s v="B.G. Fiber Play Bhangal Kapan Customer Complain"/>
-    <s v="27.754501°"/>
-    <s v="85.355827°"/>
+    <n v="27.754501000000001"/>
+    <n v="85.355827000000005"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and azimuth of KTM652_BHANGAL¬_Q changed from 0 to 2 and from 190 to 210"/>
     <s v="2G 3G"/>
@@ -7180,8 +10427,8 @@
     <s v="GIBSON NIBAS CUSTOMER COMPLAIN"/>
     <m/>
     <s v="GIBSON NIBAS CUSTOMER COMPLAIN"/>
-    <s v="27.723660°"/>
-    <s v="85.403466°"/>
+    <n v="27.723659999999999"/>
+    <n v="85.403465999999995"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and Azimuth of KTM306_Thali-B/E changed from 5/6 to 2/3 and 210 to 220 &gt;Azimuth of KTM306_Thali-P changed from 50 to 10 &gt;Mechanical Tilt and Electrical Tilt of KTM306_Thali-R changed from 3 to 5 and 5 to 3"/>
     <s v="2G 3G"/>
@@ -7198,8 +10445,8 @@
     <s v="GONGABHU CUSTOMER COMPLAIN"/>
     <m/>
     <s v="GONGABHU CUSTOMER COMPLAIN"/>
-    <s v="27.735698°"/>
-    <s v="85.314340°"/>
+    <n v="27.735697999999999"/>
+    <n v="85.314340000000001"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and azimuth of KTM133_Gongabu2-B changed from 5 to 3 and 125 to 105 &gt;Pilot Power of KTM132_Laxmi_Guest_House_Expansion_S1 changed from 330dbm to 345dbm"/>
     <s v="2G 3G"/>
@@ -7216,8 +10463,8 @@
     <s v="GREEN VALLEY APARTMENT Customer Complain"/>
     <m/>
     <s v="GREEN VALLEY APARTMENT Customer Complain"/>
-    <s v="27.627492°"/>
-    <s v="85.386884°"/>
+    <n v="27.627492"/>
+    <n v="85.386883999999995"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Pilot Power of KTM369_Lamatar1 -R changed from 330dbm to 345dbm"/>
     <s v="2G 3G"/>
@@ -7234,8 +10481,8 @@
     <s v="Imadol Near Udayapure Fresh House Customer Complain"/>
     <m/>
     <s v="Imadol Near Udayapure Fresh House Customer Complain"/>
-    <s v="27.660795°"/>
-    <s v="85.352006°"/>
+    <n v="27.660795"/>
+    <n v="85.352006000000003"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt of KTM385_SanogounLubhu-A changed from 0 to 1 &gt;Mecanical Tilt of KTM360_Imadol -P changed from 1 to 2"/>
     <s v="2G 3G"/>
@@ -7252,8 +10499,8 @@
     <s v="Dhammagara Vipassana Meditation Centre Customer Complain"/>
     <m/>
     <s v="Dhammagara Vipassana Meditation Centre Customer Complain"/>
-    <s v="27.619124°"/>
-    <s v="85.389796°"/>
+    <n v="27.619123999999999"/>
+    <n v="85.389796000000004"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt of KTM349_Godamchaur-Q changed from 3 to 2"/>
     <s v="2G 3G"/>
@@ -7270,8 +10517,8 @@
     <s v="MANMOHAN BUILDING TEACHING HOSPITAL CUSTOMERS COMPLAIN"/>
     <m/>
     <s v="MANMOHAN BUILDING TEACHING HOSPITAL CUSTOMERS COMPLAIN"/>
-    <s v="27.735748°"/>
-    <s v="85.328741°"/>
+    <n v="27.735748000000001"/>
+    <n v="85.328740999999994"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and Mechanical Tilt of KTM200_Maharajgunj_C changed from 4 to 3 and 3 to 5 &gt;Electrical Tilt and Mechanical Tilt of KTM200_Maharajgunj_C changed from 5 to 4 and 3 to 5"/>
     <s v="2G 3G"/>
@@ -7288,8 +10535,8 @@
     <s v="NEPAL APF SCHOOL CUSTOMER COMPLAIN"/>
     <m/>
     <s v="NEPAL APF SCHOOL CUSTOMER COMPLAIN"/>
-    <s v="27.660946°"/>
-    <s v="85.256239°"/>
+    <n v="27.660945999999999"/>
+    <n v="85.256238999999994"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Network Coveage and quality seems good"/>
     <s v="2G 3G"/>
@@ -7306,8 +10553,8 @@
     <s v="NT OFFICE CUSTOMER COMPLAIN"/>
     <m/>
     <s v="NT OFFICE CUSTOMER COMPLAIN"/>
-    <s v="27.672401°"/>
-    <s v="85.31341°"/>
+    <n v="27.672401000000001"/>
+    <n v="85.313410000000005"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Network Coveage and quality seems good except ehere IBS was not working"/>
     <s v="2G 3G"/>
@@ -7324,8 +10571,8 @@
     <s v="OCHU HEIGHT CUSTOMER COMPLAIN"/>
     <m/>
     <s v="OCHU HEIGHT CUSTOMER COMPLAIN"/>
-    <s v="27.650125°"/>
-    <s v="85.343661°"/>
+    <n v="27.650124999999999"/>
+    <n v="85.343660999999997"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Electrical Tilt and azimuth of KTM391_Sitapakha-A changed from 5 to 2 and 30 to 40 &gt;Electrical Tilt and azimuth of KTM391_Sitapakha-P changed from 3 to 2 and 40 to 50"/>
     <s v="2G 3G"/>
@@ -7342,8 +10589,8 @@
     <s v="RANIGHATA CHOWK CUSTOMER COMPLAIN"/>
     <m/>
     <s v="RANIGHATA CHOWK CUSTOMER COMPLAIN"/>
-    <s v="27.714352°"/>
-    <s v="85.276304°"/>
+    <n v="27.714352000000002"/>
+    <n v="85.276303999999996"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Azimuth of KTM302_Swoyambhu-C changed from 240mt0 250 &gt;Electrical Tilt and azimuth of KTM616_Sharanpur-Q changed from 3 to 2 and 110 to 100"/>
     <s v="2G 3G"/>
@@ -7360,8 +10607,8 @@
     <s v="Rapalta Cottage Complain"/>
     <m/>
     <s v="Rapalta Cottage Complain"/>
-    <s v="27.770285°"/>
-    <s v="85.382262°"/>
+    <n v="27.770285000000001"/>
+    <n v="85.382261999999997"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;No Changes was made because of lack of sites"/>
     <s v="2G 3G"/>
@@ -7378,8 +10625,8 @@
     <s v="Thapagaun Area Customer Complain"/>
     <m/>
     <s v="Thapagaun Area Customer Complain"/>
-    <s v="27.690065°"/>
-    <s v="85.330170°"/>
+    <n v="27.690065000000001"/>
+    <n v="85.330169999999995"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Mechanical Tilt and Azimuth of KTM708_Krishna_Tower_Micro_B changed from 2 to 1 and 60 to 70 &gt;Mechanical Tilt and Azimuth of KTM311_ThpaGaun_A changed from 2 to 1 and 20 to 30 &gt;Azimuth of KTM708_Krishna_Tower_Micro_Q changed from 60 TO 50 &gt;Azimuth of KTM"/>
     <s v="2G 3G"/>
@@ -7396,8 +10643,8 @@
     <s v="Tikathali Sarkidil Customer Complain"/>
     <m/>
     <s v="Tikathali Sarkidil Customer Complain"/>
-    <s v="27.661414°"/>
-    <s v="85.356494°"/>
+    <n v="27.661414000000001"/>
+    <n v="85.356493999999998"/>
     <s v="Drive Test &amp; Optimization"/>
     <s v="&gt;Azimuth of KTM360_Imadol -B changed from 130 to 100 &gt;Electrical Tilt of KTM603_Tikathali2-P changed from 3 to 2"/>
     <s v="2G 3G"/>
@@ -7410,3158 +10657,38 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="185">
-  <r>
-    <n v="1"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR474_Sunawal"/>
-    <s v="WDR474_Sunawal"/>
-    <s v="Sunawal"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="2G 900MHz"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR013_Jaluke"/>
-    <s v="WDR013_Jaluke"/>
-    <s v="Arghakhachi"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="2G 900MHz"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="Nawalparasi"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="900MHz"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-SUN"/>
-    <s v="CDR465_RAMCHE"/>
-    <s v="CDR465_RAMCHE"/>
-    <s v="Ramche Rasuwa"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="900 MHZ"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="CDR123_Gajuri"/>
-    <s v="CDR123_Gajuri"/>
-    <s v="Dhading"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Naagdhunga Tunnel"/>
-    <s v="New Site Plan"/>
-    <s v="Dhading"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="2 Sector"/>
-    <s v="2G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="Daunne"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Naagdhunga Tunnel"/>
-    <s v="New Site Plan"/>
-    <s v="Dhading, Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-HTD"/>
-    <s v="CDR099_Ramnagar"/>
-    <s v="CDR099_Ramnagar"/>
-    <s v="Chitwan"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Sanjen Hydro"/>
-    <m/>
-    <s v="Rasuwa"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="World Bank Group"/>
-    <m/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="World Bank Group"/>
-    <m/>
-    <s v="Durbarmarg"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="Network Quality Improvement"/>
-    <s v="WDR-POK"/>
-    <s v="Ghiring Rural Municipality"/>
-    <m/>
-    <s v="Tanahu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Mahotsav Restaurant"/>
-    <m/>
-    <s v="Laldurbar Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Trishuli 3A Office"/>
-    <m/>
-    <s v="Nuwakot"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Infinity Mall"/>
-    <m/>
-    <s v="Gongabu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Police Hospital"/>
-    <m/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="CCSI"/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Eagle Logistic"/>
-    <m/>
-    <s v="Chhetrapati"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Himalayan Bank"/>
-    <m/>
-    <s v="Bishalbazar"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="Network Quality Improvement"/>
-    <s v="WDR-POK"/>
-    <s v="Dulegauda Nagarpalika"/>
-    <m/>
-    <s v="Dulegauda"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Tandoori Fast Food Café"/>
-    <m/>
-    <s v="Newroad"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="GBIME"/>
-    <m/>
-    <s v="Kamaladi"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="23"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Park Village Resort"/>
-    <m/>
-    <s v="Budhanilkantha"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="24"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Square Hotel"/>
-    <m/>
-    <s v="Pulchwok, Lalitpur"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="25"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Radission Hotel"/>
-    <m/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Standard Chartered Bank"/>
-    <m/>
-    <s v="Baneswore, Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="27"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Madhya Bhotekoshi"/>
-    <m/>
-    <s v="Sindhupalchwok"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="28"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Department of Road"/>
-    <m/>
-    <s v="Babarmahal Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Samanya Prasasan Mantralaya"/>
-    <m/>
-    <s v="Singhdurbar"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="30"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Bidhan Bista"/>
-    <m/>
-    <s v="Jhamsikhel"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="31"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Green Law Firm (Action)"/>
-    <m/>
-    <s v="Putalisadak"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="32"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Bindu Suwal"/>
-    <m/>
-    <s v="Choche, Bhaktapur"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="33"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="MWDR"/>
-    <s v="Jajarkot Rimna"/>
-    <s v="MWDR098-NT jajarkot"/>
-    <s v="Rimna"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="2G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="34"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Prime Minister Office"/>
-    <s v="KTM289-Singhadurbar"/>
-    <s v="Singhdurbar"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="35"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Godawari Conference Hall"/>
-    <s v="KTM445-GodawariKunda"/>
-    <s v="Godawari"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="36"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Switzerland Park"/>
-    <s v="KTM146"/>
-    <s v="Indrasthan"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="37"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Siddhalek 07, Pipaltar, Dhading"/>
-    <s v="CDR123"/>
-    <s v="Gajuri"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="38"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Army Training Center"/>
-    <s v="CDR625_Zerokilo"/>
-    <s v="Paanch Khal"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="39"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Alle Barrack"/>
-    <s v="CDR102-Alle Barrack"/>
-    <s v="Shivapuri National Park"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="2G/4G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="40"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Ranjana Trade Mall"/>
-    <s v="KTM099_CrystalHotel"/>
-    <s v="Bishal Bazar"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="41"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Radhe Radhe"/>
-    <s v="KTM043"/>
-    <s v="Thimi"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="42"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Ullens School"/>
-    <s v="KTM345_Dholahiti"/>
-    <s v="Satdobato, Lalitpur"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="43"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="CG Hotel And Resort"/>
-    <s v="KTM383_SachalSanepa"/>
-    <s v="Jhamsikhel"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="44"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Timure Bazar"/>
-    <m/>
-    <s v="Rasuwa"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="45"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="MWDR"/>
-    <s v="Guranse Nagarpalika"/>
-    <m/>
-    <s v="Dailekh"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="1800MHz"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="46"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Panchkhal Army Camp"/>
-    <s v="CDR625_Zerokilo"/>
-    <s v="Kabhre"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="47"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="District Court Bhaktapur"/>
-    <s v="KTM688-Chokha"/>
-    <s v="Libali"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="48"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Sankata Club"/>
-    <s v="KTM742-Nepal Airlines"/>
-    <s v="Tehbhal Sankata"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="49"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Akash Galli"/>
-    <s v="KTM299-NTSundhara"/>
-    <s v=" Sundhara"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="50"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Army Training Center"/>
-    <s v="CDR625_Zerokilo"/>
-    <s v="Paanch Khal"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="3"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="51"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Manmohan Cardiology"/>
-    <s v="KTM200-Maharajgunj1"/>
-    <s v="Maharajgunj"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="52"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="NIMB"/>
-    <s v="KTM225-Narayanhitipalace"/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="2"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="53"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Green Law Firm"/>
-    <s v="KTM174_Khasibazar"/>
-    <s v="Putalisadak"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="54"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Civil Hospital"/>
-    <s v="KTM237_NewBaneshworChowk"/>
-    <s v="Minbhawan"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="55"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Santenswor Temple"/>
-    <m/>
-    <s v="Bajrabarahi, Lalitpur"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="56"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="NAC"/>
-    <m/>
-    <s v="Sinamangal"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="4"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="57"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Mercur Hotle"/>
-    <m/>
-    <s v="Sukhedhara"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="58"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Siddhartha Hotel"/>
-    <m/>
-    <s v="Chumlingtar"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="59"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Hams Hospital"/>
-    <m/>
-    <s v="Mandikhatar"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="2"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="60"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-HTD"/>
-    <s v="Hetauda Hospital"/>
-    <m/>
-    <s v="Hetauda"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="61"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-HTD"/>
-    <s v="Churia Mai Temple"/>
-    <m/>
-    <s v="Hetauda"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="62"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Furke Khola"/>
-    <m/>
-    <s v="Dhading"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="63"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Hilton Hotel"/>
-    <m/>
-    <s v="Naxal"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="64"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Kanti Children Hospital"/>
-    <m/>
-    <s v="Maharajgunj"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="65"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Nabil Bank"/>
-    <m/>
-    <s v="Sallaghari"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="66"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Royal Resort"/>
-    <m/>
-    <s v="Shivapuri National Park"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="67"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Trade Tower"/>
-    <m/>
-    <s v="Maitighar"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <m/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="68"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Panchkhal Army Camp"/>
-    <m/>
-    <s v="Kabhre"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="2 Sector"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="69"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Doleshwor Temple"/>
-    <s v="KTM390-sipadole"/>
-    <s v="Sipadol"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="70"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Sky Walk Wonder Nepal"/>
-    <s v="KTM604"/>
-    <s v="Kamaladi"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="71"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Hotel Mount Fuji"/>
-    <s v="KTM299-NTSundhara"/>
-    <s v="Sundhara"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="72"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Tamrakar House"/>
-    <s v="KTM099_CrystalHotel"/>
-    <s v="Newroad"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="73"/>
-    <s v="Network Quality Test"/>
-    <s v="FWDR"/>
-    <s v="Bhimdatta Mahendranagar"/>
-    <m/>
-    <s v="Bhimdatta"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="74"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Ghubhakot Municipality and Ramghat"/>
-    <m/>
-    <s v="Ghubhakot, Ramghat"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="75"/>
-    <s v="Network Quality Test"/>
-    <s v="FWDR"/>
-    <s v="Kailari Ratnapur Area"/>
-    <m/>
-    <s v="Kailari"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="76"/>
-    <s v="Network Quality Test"/>
-    <s v="FWDR"/>
-    <s v="Bajura"/>
-    <m/>
-    <s v="Bajure"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="77"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Kohalpur-Birendranagar Highway"/>
-    <m/>
-    <s v="Kohalpur-Birendranagar"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="78"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Baglung"/>
-    <m/>
-    <s v="Baglung"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="79"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Pokhara-Butwal Highway"/>
-    <m/>
-    <s v="Pokhara-Butwal"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="80"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Bhairahawa Village"/>
-    <m/>
-    <s v="Bhairahawa"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="81"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Rolpa"/>
-    <m/>
-    <s v="Rolpa"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="82"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Pyuthan"/>
-    <m/>
-    <s v="Pyuthan"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="83"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
-    <m/>
-    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="84"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Besisahar City"/>
-    <m/>
-    <s v="Besisahar City"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Third Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="85"/>
-    <s v="Network Quality Test"/>
-    <s v="KTM "/>
-    <s v="KTM Valley DT"/>
-    <m/>
-    <s v="Kathmandu Bhaktapur Lalitpur "/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="86"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR"/>
-    <s v="Bharatpur"/>
-    <m/>
-    <s v="Bharatpur City"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="87"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Prithvi Highway"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="88"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR"/>
-    <s v="Mugling- Bharatpur Highway"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="89"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR +EDR"/>
-    <s v="Mahendra Highway (Bharatpur-Kakadvitta)"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="90"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR+WDR"/>
-    <s v="Kathmandu to Butwal Highway"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Highway Coverage Test"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="91"/>
-    <s v="Network Quality Test"/>
-    <s v="KTM"/>
-    <s v="Kathmandu Ringroad DT"/>
-    <m/>
-    <s v="City Roads"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Ringroad Coverage Test"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="92"/>
-    <s v="Network Expansion"/>
-    <s v="KTM"/>
-    <s v="Gongabu Ganesthan"/>
-    <m/>
-    <s v="Gongabu Ganeshthan"/>
-    <m/>
-    <m/>
-    <s v="Site Survey"/>
-    <s v="Site Survey"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="93"/>
-    <s v="Network Expansion"/>
-    <s v="KTM"/>
-    <s v="Kirtipur Tyangla Phat"/>
-    <m/>
-    <s v="Kirtipur Tyangla Phat"/>
-    <m/>
-    <m/>
-    <s v="Site Survey"/>
-    <s v="Site Survey"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="94"/>
-    <s v="Network Expansion"/>
-    <s v="KTM"/>
-    <s v="Shankarapur Wardno 4"/>
-    <m/>
-    <s v="Shankarapur Municipalit"/>
-    <m/>
-    <m/>
-    <s v="Site Survey"/>
-    <s v="Site Survey"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="95"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily maintenance and Cell parameter changes for Pkg A and B Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-02T00:00:00"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-July 2023"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-20T00:00:00"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for PS Call Drop Optimization in CDRHTD and CDRTTC UMTS Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation Solution for TRX Addition and GSM Congestion Optimization in PKG-A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-28T00:00:00"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for WCDMA Networks of Package-A and B July _Monthly."/>
-    <m/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-August 2023"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for UL Power Congestion Optimization in Pkg A Network"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-14T00:00:00"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-26T00:00:00"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-27T00:00:00"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="WCDMA Implementation solution for Daily Maintenance and Cell Parameter Changes- August"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-02T00:00:00"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A Monthly- 2023"/>
-    <m/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit FWDR ATRHBSC09"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit FWDR ATRHMBSC04"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-11T00:00:00"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit MWDR NPJHBSC10"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-11T00:00:00"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in TTCHMBSC02"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-11T00:00:00"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit MWDR NPJHMBSC05"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit for HTDHBSC07"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit CDR TTCHMBSC02"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit for HTDHBSC08"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit CDR HTDHMBSC03"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-24T00:00:00"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit BRTHBSC11"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHBSC07"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-30T00:00:00"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit for BRTHMBSC06"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-30T00:00:00"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit for NPJHMBSC05"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit ATRHMBSC04"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHMBSC03"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit BRTHMBSC06"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit TTCHMBSC02"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit HTDHMBSC03"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-14T00:00:00"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-21T00:00:00"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHBSC10"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHBSC09"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHMBSC05"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHMBSC04"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Optimization of TBF Establishments Failure Due to No Channel"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-27T00:00:00"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Optimization of TBF Establishments Failure Due to No Channel in CDR region"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-17T00:00:00"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-17T00:00:00"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Optimization of TBF Establishments Failure Due to No Channel in FWDR"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-25T00:00:00"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance january 2024"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance february 2024"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-31T00:00:00"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS 3G Cell Optimization and RF Parameter Changes Monthly"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - 2G Data Drop Optimization in EDR region"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-02T00:00:00"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance march month 2024"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-2g Automatic TRX Shutdown disable in Additional Sites"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-13T00:00:00"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit Additional Site Package-A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-14T00:00:00"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-2G Neighbor Audit Additional Site Package-B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - Implementation Solution for 2G Data Drop Optimisation in TTCHBSC02."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-26T00:00:00"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-28T00:00:00"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Data Drop Optimization in KTM"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-17T00:00:00"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - UMTS Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-19T00:00:00"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Data Drop Optimization in BRTHMBSC11 of EDR Region"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-19T00:00:00"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-19T00:00:00"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-26T00:00:00"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Optimization of Uplink and Downlink Power congestion of Package-A Network"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-05-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <s v="Network RF Complain "/>
-    <s v="KTM"/>
-    <s v="Kyonjosym Municipality Lalitpur"/>
-    <m/>
-    <s v="Kyonjosym Municipality Lalitpur"/>
-    <n v="27.548224000000001"/>
-    <n v="85.400718999999995"/>
-    <s v="RF Parameter Optimization"/>
-    <s v="TRX Power increament 2G 3G"/>
-    <s v="2G 3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <d v="2024-05-20T00:00:00"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <s v="Network RF Complain "/>
-    <s v="CDR"/>
-    <s v="Timure Rashuwagadhi"/>
-    <m/>
-    <s v="Rasuwagadhi"/>
-    <n v="28.255264"/>
-    <n v="85.366857999999993"/>
-    <s v="Sector Expansion Survey "/>
-    <s v="Sector Expansion"/>
-    <s v="2G 3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-05-22T00:00:00"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="RF 3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+  <location ref="U87:W104" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField name="Region" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Site/Location" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField name="Address" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Lat" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Lon" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField name="Task Description" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Band" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField name="Transmission" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Scope" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Date" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Remarks/Recomendation" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="RF" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="RF" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="R2:T19" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="16">
     <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10590,8 +10717,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000006000000}" name="RF 2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000006000000}" name="RF 2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="R87:T104" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="15">
     <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10609,36 +10736,6 @@
     <pivotField name="Transmission" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Scope" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Date" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="RF 3" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
-  <location ref="U87:W104" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="16">
-    <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField name="Region" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Site/Location" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField name="Address" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Lat" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Lon" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField name="Task Description" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Band" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField name="Transmission" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Scope" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Date" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Remarks/Recomendation" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
   </pivotFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10849,8 +10946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="H205" sqref="H205"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22257,7 +22354,9 @@
         <v>414</v>
       </c>
       <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
+      <c r="L218" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
       <c r="O218" s="22">
@@ -22312,7 +22411,9 @@
         <v>417</v>
       </c>
       <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
+      <c r="L219" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="22">
@@ -22336,21 +22437,36 @@
       <c r="AE219" s="2"/>
     </row>
     <row r="220" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
+      <c r="I220" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J220" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M220" s="2"/>
-      <c r="N220" s="2"/>
-      <c r="O220" s="4"/>
+      <c r="N220" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O220" s="36">
+        <v>45450.495289351849</v>
+      </c>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
@@ -22369,21 +22485,36 @@
       <c r="AE220" s="2"/>
     </row>
     <row r="221" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
+      <c r="I221" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J221" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
-      <c r="O221" s="4"/>
+      <c r="N221" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O221" s="36">
+        <v>45429.449224537035</v>
+      </c>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
@@ -22402,21 +22533,36 @@
       <c r="AE221" s="2"/>
     </row>
     <row r="222" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
+      <c r="I222" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J222" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="4"/>
+      <c r="N222" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O222" s="36">
+        <v>45429.39702546296</v>
+      </c>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
@@ -22435,21 +22581,36 @@
       <c r="AE222" s="2"/>
     </row>
     <row r="223" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
+      <c r="I223" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J223" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="4"/>
+      <c r="N223" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O223" s="36">
+        <v>45439.617743055554</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
@@ -22468,21 +22629,36 @@
       <c r="AE223" s="2"/>
     </row>
     <row r="224" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
+      <c r="I224" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J224" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="4"/>
+      <c r="N224" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O224" s="36">
+        <v>45436.609953703701</v>
+      </c>
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
@@ -22501,21 +22677,47 @@
       <c r="AE224" s="2"/>
     </row>
     <row r="225" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="4"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D225" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="E225" s="38"/>
+      <c r="F225" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G225" s="2">
+        <v>27.697400999999999</v>
+      </c>
+      <c r="H225" s="2">
+        <v>85.321914000000007</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J225" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M225" s="2"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="4"/>
+      <c r="N225" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O225" s="39">
+        <v>45433</v>
+      </c>
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
@@ -22534,22 +22736,52 @@
       <c r="AE225" s="2"/>
     </row>
     <row r="226" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="4"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G226" s="2">
+        <v>27.730460000000001</v>
+      </c>
+      <c r="H226" s="2">
+        <v>85.312830000000005</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J226" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="4"/>
-      <c r="P226" s="2"/>
+      <c r="N226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O226" s="40">
+        <v>45449</v>
+      </c>
+      <c r="P226" s="38" t="s">
+        <v>426</v>
+      </c>
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>

--- a/rfworkdata.xlsx
+++ b/rfworkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI project\RF Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD90955-33B3-42F1-8CA1-BD2FF086B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAE7ED-E947-44E8-AD73-D7F95D986446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId2"/>
-    <pivotCache cacheId="43" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="439">
   <si>
     <t>Region</t>
   </si>
@@ -1344,6 +1344,36 @@
   </si>
   <si>
     <t>KTM755_GONGABU PABITRANAGAR</t>
+  </si>
+  <si>
+    <t>Nabil Bank Shallaghari Bhaktapur</t>
+  </si>
+  <si>
+    <t>Survey for small cell installation</t>
+  </si>
+  <si>
+    <t>3G 4G</t>
+  </si>
+  <si>
+    <t>Chochhe Bhaktapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeater dismantled </t>
+  </si>
+  <si>
+    <t>Sector Expansion with indoor dash in Ranjana Trade Mall</t>
+  </si>
+  <si>
+    <t>Nagdhunga Tunnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site and Sector Survey for nagdhunga indoor and tunnel </t>
+  </si>
+  <si>
+    <t>Site Survey for indoor solution</t>
+  </si>
+  <si>
+    <t>CG Hotel Sanepa</t>
   </si>
 </sst>
 </file>
@@ -3510,67 +3540,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45452.635846643519" refreshedVersion="8" recordCount="185" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O186" sheet="RF"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="S.N." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="185"/>
-    </cacheField>
-    <cacheField name="TaskCategory" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Region" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Site/Location" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ParentSite" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Address" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Lat" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="27.548224000000001" maxValue="28.255264"/>
-    </cacheField>
-    <cacheField name="Lon" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="85.366857999999993" maxValue="85.400718999999995"/>
-    </cacheField>
-    <cacheField name="TaskType" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Task Description" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
-    </cacheField>
-    <cacheField name="Band" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="TaskStatus" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Transmission" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Scope" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-06-02T00:00:00" maxDate="2024-05-23T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45452.635846874997" refreshedVersion="8" recordCount="215" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45452.712053819443" refreshedVersion="8" recordCount="215" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P216" sheet="RF"/>
   </cacheSource>
@@ -3632,3157 +3602,67 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="185">
-  <r>
-    <n v="1"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR474_Sunawal"/>
-    <s v="WDR474_Sunawal"/>
-    <s v="Sunawal"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="2G 900MHz"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR013_Jaluke"/>
-    <s v="WDR013_Jaluke"/>
-    <s v="Arghakhachi"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="2G 900MHz"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="Nawalparasi"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="900MHz"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-SUN"/>
-    <s v="CDR465_RAMCHE"/>
-    <s v="CDR465_RAMCHE"/>
-    <s v="Ramche Rasuwa"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="900 MHZ"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="CDR123_Gajuri"/>
-    <s v="CDR123_Gajuri"/>
-    <s v="Dhading"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Naagdhunga Tunnel"/>
-    <s v="New Site Plan"/>
-    <s v="Dhading"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="2 Sector"/>
-    <s v="2G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="WDR-BUT"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="WDR423-Daunnedevi"/>
-    <s v="Daunne"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Naagdhunga Tunnel"/>
-    <s v="New Site Plan"/>
-    <s v="Dhading, Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-HTD"/>
-    <s v="CDR099_Ramnagar"/>
-    <s v="CDR099_Ramnagar"/>
-    <s v="Chitwan"/>
-    <m/>
-    <m/>
-    <s v="High Gain Antenna"/>
-    <s v="1 Sector"/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Sanjen Hydro"/>
-    <m/>
-    <s v="Rasuwa"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="World Bank Group"/>
-    <m/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="World Bank Group"/>
-    <m/>
-    <s v="Durbarmarg"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <s v="Network Quality Improvement"/>
-    <s v="WDR-POK"/>
-    <s v="Ghiring Rural Municipality"/>
-    <m/>
-    <s v="Tanahu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Mahotsav Restaurant"/>
-    <m/>
-    <s v="Laldurbar Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Trishuli 3A Office"/>
-    <m/>
-    <s v="Nuwakot"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Infinity Mall"/>
-    <m/>
-    <s v="Gongabu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Police Hospital"/>
-    <m/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="CCSI"/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Eagle Logistic"/>
-    <m/>
-    <s v="Chhetrapati"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Himalayan Bank"/>
-    <m/>
-    <s v="Bishalbazar"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <s v="Network Quality Improvement"/>
-    <s v="WDR-POK"/>
-    <s v="Dulegauda Nagarpalika"/>
-    <m/>
-    <s v="Dulegauda"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <m/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Tandoori Fast Food Café"/>
-    <m/>
-    <s v="Newroad"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="22"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="GBIME"/>
-    <m/>
-    <s v="Kamaladi"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="23"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Park Village Resort"/>
-    <m/>
-    <s v="Budhanilkantha"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="24"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Square Hotel"/>
-    <m/>
-    <s v="Pulchwok, Lalitpur"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="25"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Radission Hotel"/>
-    <m/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <s v="Network Quality Improvement"/>
-    <s v="KTM"/>
-    <s v="Standard Chartered Bank"/>
-    <m/>
-    <s v="Baneswore, Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="27"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Madhya Bhotekoshi"/>
-    <m/>
-    <s v="Sindhupalchwok"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="28"/>
-    <s v="Network Quality Improvement"/>
-    <s v="CDR-TTC"/>
-    <s v="Department of Road"/>
-    <m/>
-    <s v="Babarmahal Kathmandu"/>
-    <m/>
-    <m/>
-    <s v="Repeater"/>
-    <m/>
-    <s v="2G/3G"/>
-    <s v="Planned"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Samanya Prasasan Mantralaya"/>
-    <m/>
-    <s v="Singhdurbar"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="30"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Bidhan Bista"/>
-    <m/>
-    <s v="Jhamsikhel"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="31"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Green Law Firm (Action)"/>
-    <m/>
-    <s v="Putalisadak"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="32"/>
-    <s v="Others"/>
-    <s v="KTM"/>
-    <s v="Bindu Suwal"/>
-    <m/>
-    <s v="Choche, Bhaktapur"/>
-    <m/>
-    <m/>
-    <s v="Repeater Dismantled"/>
-    <m/>
-    <m/>
-    <s v="Dismantled"/>
-    <s v="-"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="33"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="MWDR"/>
-    <s v="Jajarkot Rimna"/>
-    <s v="MWDR098-NT jajarkot"/>
-    <s v="Rimna"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="2G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="34"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Prime Minister Office"/>
-    <s v="KTM289-Singhadurbar"/>
-    <s v="Singhdurbar"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="35"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Godawari Conference Hall"/>
-    <s v="KTM445-GodawariKunda"/>
-    <s v="Godawari"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="36"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Switzerland Park"/>
-    <s v="KTM146"/>
-    <s v="Indrasthan"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="37"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Siddhalek 07, Pipaltar, Dhading"/>
-    <s v="CDR123"/>
-    <s v="Gajuri"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="38"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Army Training Center"/>
-    <s v="CDR625_Zerokilo"/>
-    <s v="Paanch Khal"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="39"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Alle Barrack"/>
-    <s v="CDR102-Alle Barrack"/>
-    <s v="Shivapuri National Park"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="2G/4G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="40"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Ranjana Trade Mall"/>
-    <s v="KTM099_CrystalHotel"/>
-    <s v="Bishal Bazar"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="41"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Radhe Radhe"/>
-    <s v="KTM043"/>
-    <s v="Thimi"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="42"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Ullens School"/>
-    <s v="KTM345_Dholahiti"/>
-    <s v="Satdobato, Lalitpur"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="43"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="CG Hotel And Resort"/>
-    <s v="KTM383_SachalSanepa"/>
-    <s v="Jhamsikhel"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="44"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Timure Bazar"/>
-    <m/>
-    <s v="Rasuwa"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="45"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="MWDR"/>
-    <s v="Guranse Nagarpalika"/>
-    <m/>
-    <s v="Dailekh"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="1 Sector"/>
-    <s v="1800MHz"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="46"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Panchkhal Army Camp"/>
-    <s v="CDR625_Zerokilo"/>
-    <s v="Kabhre"/>
-    <m/>
-    <m/>
-    <s v="Sector Expansion"/>
-    <s v="2 Sector"/>
-    <s v="2G/3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="47"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="District Court Bhaktapur"/>
-    <s v="KTM688-Chokha"/>
-    <s v="Libali"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="48"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Sankata Club"/>
-    <s v="KTM742-Nepal Airlines"/>
-    <s v="Tehbhal Sankata"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="49"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Akash Galli"/>
-    <s v="KTM299-NTSundhara"/>
-    <s v=" Sundhara"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="50"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Army Training Center"/>
-    <s v="CDR625_Zerokilo"/>
-    <s v="Paanch Khal"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="3"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="51"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Manmohan Cardiology"/>
-    <s v="KTM200-Maharajgunj1"/>
-    <s v="Maharajgunj"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="52"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="NIMB"/>
-    <s v="KTM225-Narayanhitipalace"/>
-    <s v="Lazimpat"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="2"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="53"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Green Law Firm"/>
-    <s v="KTM174_Khasibazar"/>
-    <s v="Putalisadak"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="54"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Civil Hospital"/>
-    <s v="KTM237_NewBaneshworChowk"/>
-    <s v="Minbhawan"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="55"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Santenswor Temple"/>
-    <m/>
-    <s v="Bajrabarahi, Lalitpur"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="56"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="NAC"/>
-    <m/>
-    <s v="Sinamangal"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="4"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="57"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Mercur Hotle"/>
-    <m/>
-    <s v="Sukhedhara"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="58"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Siddhartha Hotel"/>
-    <m/>
-    <s v="Chumlingtar"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="59"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Hams Hospital"/>
-    <m/>
-    <s v="Mandikhatar"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="2"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="60"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-HTD"/>
-    <s v="Hetauda Hospital"/>
-    <m/>
-    <s v="Hetauda"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="61"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-HTD"/>
-    <s v="Churia Mai Temple"/>
-    <m/>
-    <s v="Hetauda"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="62"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Furke Khola"/>
-    <m/>
-    <s v="Dhading"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="63"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Hilton Hotel"/>
-    <m/>
-    <s v="Naxal"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="64"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Kanti Children Hospital"/>
-    <m/>
-    <s v="Maharajgunj"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="65"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Nabil Bank"/>
-    <m/>
-    <s v="Sallaghari"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="66"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Royal Resort"/>
-    <m/>
-    <s v="Shivapuri National Park"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <n v="1"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="67"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Trade Tower"/>
-    <m/>
-    <s v="Maitighar"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <m/>
-    <s v="3G/4G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="CCS"/>
-    <m/>
-  </r>
-  <r>
-    <n v="68"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="CDR-TTC"/>
-    <s v="Panchkhal Army Camp"/>
-    <m/>
-    <s v="Kabhre"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="2 Sector"/>
-    <s v="4G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="69"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Doleshwor Temple"/>
-    <s v="KTM390-sipadole"/>
-    <s v="Sipadol"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="70"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Sky Walk Wonder Nepal"/>
-    <s v="KTM604"/>
-    <s v="Kamaladi"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G "/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="71"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Hotel Mount Fuji"/>
-    <s v="KTM299-NTSundhara"/>
-    <s v="Sundhara"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Installed"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="72"/>
-    <s v="Network Coverage Expansion"/>
-    <s v="KTM"/>
-    <s v="Tamrakar House"/>
-    <s v="KTM099_CrystalHotel"/>
-    <s v="Newroad"/>
-    <m/>
-    <m/>
-    <s v="Small Cell"/>
-    <s v="1 Sector"/>
-    <s v="3G"/>
-    <s v="Planned"/>
-    <s v="Fiber"/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="73"/>
-    <s v="Network Quality Test"/>
-    <s v="FWDR"/>
-    <s v="Bhimdatta Mahendranagar"/>
-    <m/>
-    <s v="Bhimdatta"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="74"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Ghubhakot Municipality and Ramghat"/>
-    <m/>
-    <s v="Ghubhakot, Ramghat"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="75"/>
-    <s v="Network Quality Test"/>
-    <s v="FWDR"/>
-    <s v="Kailari Ratnapur Area"/>
-    <m/>
-    <s v="Kailari"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="76"/>
-    <s v="Network Quality Test"/>
-    <s v="FWDR"/>
-    <s v="Bajura"/>
-    <m/>
-    <s v="Bajure"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="77"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Kohalpur-Birendranagar Highway"/>
-    <m/>
-    <s v="Kohalpur-Birendranagar"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="First Quarter "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="78"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Baglung"/>
-    <m/>
-    <s v="Baglung"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="79"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Pokhara-Butwal Highway"/>
-    <m/>
-    <s v="Pokhara-Butwal"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="80"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Bhairahawa Village"/>
-    <m/>
-    <s v="Bhairahawa"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="81"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Rolpa"/>
-    <m/>
-    <s v="Rolpa"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="82"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Pyuthan"/>
-    <m/>
-    <s v="Pyuthan"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="83"/>
-    <s v="Network Quality Test"/>
-    <s v="MWDR"/>
-    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
-    <m/>
-    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Second Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+ HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="84"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Besisahar City"/>
-    <m/>
-    <s v="Besisahar City"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Third Quarter"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="85"/>
-    <s v="Network Quality Test"/>
-    <s v="KTM "/>
-    <s v="KTM Valley DT"/>
-    <m/>
-    <s v="Kathmandu Bhaktapur Lalitpur "/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="86"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR"/>
-    <s v="Bharatpur"/>
-    <m/>
-    <s v="Bharatpur City"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="87"/>
-    <s v="Network Quality Test"/>
-    <s v="WDR"/>
-    <s v="Prithvi Highway"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="88"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR"/>
-    <s v="Mugling- Bharatpur Highway"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="89"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR +EDR"/>
-    <s v="Mahendra Highway (Bharatpur-Kakadvitta)"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="On Demand "/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT+HW"/>
-    <m/>
-  </r>
-  <r>
-    <n v="90"/>
-    <s v="Network Quality Test"/>
-    <s v="CDR+WDR"/>
-    <s v="Kathmandu to Butwal Highway"/>
-    <m/>
-    <s v="Major Highway"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Highway Coverage Test"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="91"/>
-    <s v="Network Quality Test"/>
-    <s v="KTM"/>
-    <s v="Kathmandu Ringroad DT"/>
-    <m/>
-    <s v="City Roads"/>
-    <m/>
-    <m/>
-    <s v="Drive Test"/>
-    <s v="Ringroad Coverage Test"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="92"/>
-    <s v="Network Expansion"/>
-    <s v="KTM"/>
-    <s v="Gongabu Ganesthan"/>
-    <m/>
-    <s v="Gongabu Ganeshthan"/>
-    <m/>
-    <m/>
-    <s v="Site Survey"/>
-    <s v="Site Survey"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="93"/>
-    <s v="Network Expansion"/>
-    <s v="KTM"/>
-    <s v="Kirtipur Tyangla Phat"/>
-    <m/>
-    <s v="Kirtipur Tyangla Phat"/>
-    <m/>
-    <m/>
-    <s v="Site Survey"/>
-    <s v="Site Survey"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="94"/>
-    <s v="Network Expansion"/>
-    <s v="KTM"/>
-    <s v="Shankarapur Wardno 4"/>
-    <m/>
-    <s v="Shankarapur Municipalit"/>
-    <m/>
-    <m/>
-    <s v="Site Survey"/>
-    <s v="Site Survey"/>
-    <s v="2G 3G 4G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <m/>
-  </r>
-  <r>
-    <n v="95"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily maintenance and Cell parameter changes for Pkg A and B Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-02T00:00:00"/>
-  </r>
-  <r>
-    <n v="96"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="97"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-July 2023"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="98"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-20T00:00:00"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for PS Call Drop Optimization in CDRHTD and CDRTTC UMTS Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation Solution for TRX Addition and GSM Congestion Optimization in PKG-A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="101"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-28T00:00:00"/>
-  </r>
-  <r>
-    <n v="102"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-06-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="103"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for WCDMA Networks of Package-A and B July _Monthly."/>
-    <m/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="104"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-August 2023"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="105"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for UL Power Congestion Optimization in Pkg A Network"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="106"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-07T00:00:00"/>
-  </r>
-  <r>
-    <n v="107"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-14T00:00:00"/>
-  </r>
-  <r>
-    <n v="108"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-26T00:00:00"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-07-27T00:00:00"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="WCDMA Implementation solution for Daily Maintenance and Cell Parameter Changes- August"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="111"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-02T00:00:00"/>
-  </r>
-  <r>
-    <n v="112"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A Monthly- 2023"/>
-    <m/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="113"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit FWDR ATRHBSC09"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-04T00:00:00"/>
-  </r>
-  <r>
-    <n v="114"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit FWDR ATRHMBSC04"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="115"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-11T00:00:00"/>
-  </r>
-  <r>
-    <n v="116"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit MWDR NPJHBSC10"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-11T00:00:00"/>
-  </r>
-  <r>
-    <n v="117"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in TTCHMBSC02"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-11T00:00:00"/>
-  </r>
-  <r>
-    <n v="118"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit MWDR NPJHMBSC05"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="119"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit for HTDHBSC07"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="120"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit CDR TTCHMBSC02"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="121"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit for HTDHBSC08"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="122"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit CDR HTDHMBSC03"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="123"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-24T00:00:00"/>
-  </r>
-  <r>
-    <n v="124"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit BRTHBSC11"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="125"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHBSC07"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-30T00:00:00"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit for BRTHMBSC06"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-08-30T00:00:00"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit for NPJHMBSC05"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit ATRHMBSC04"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="131"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHMBSC03"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-08T00:00:00"/>
-  </r>
-  <r>
-    <n v="132"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit BRTHMBSC06"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="133"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit TTCHMBSC02"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-12T00:00:00"/>
-  </r>
-  <r>
-    <n v="134"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="3G Neighbor Audit HTDHMBSC03"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-14T00:00:00"/>
-  </r>
-  <r>
-    <n v="135"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="136"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-21T00:00:00"/>
-  </r>
-  <r>
-    <n v="137"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHBSC10"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="138"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHBSC09"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-09-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="139"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="140"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHMBSC05"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="141"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHMBSC04"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="142"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Feature Implementation"/>
-    <s v="Implementation Solution for Optimization of TBF Establishments Failure Due to No Channel"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-06T00:00:00"/>
-  </r>
-  <r>
-    <n v="143"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="144"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-18T00:00:00"/>
-  </r>
-  <r>
-    <n v="145"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-10-27T00:00:00"/>
-  </r>
-  <r>
-    <n v="146"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="147"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Optimization of TBF Establishments Failure Due to No Channel in CDR region"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="148"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-17T00:00:00"/>
-  </r>
-  <r>
-    <n v="149"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-17T00:00:00"/>
-  </r>
-  <r>
-    <n v="150"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Optimization of TBF Establishments Failure Due to No Channel in FWDR"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-11-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="151"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="152"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="153"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="154"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2023-12-25T00:00:00"/>
-  </r>
-  <r>
-    <n v="155"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="156"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance january 2024"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="157"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="158"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="159"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance february 2024"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-01-31T00:00:00"/>
-  </r>
-  <r>
-    <n v="160"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS 3G Cell Optimization and RF Parameter Changes Monthly"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="161"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - 2G Data Drop Optimization in EDR region"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-02T00:00:00"/>
-  </r>
-  <r>
-    <n v="162"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-23T00:00:00"/>
-  </r>
-  <r>
-    <n v="163"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-02-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="164"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="165"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance march month 2024"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="166"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="167"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-2g Automatic TRX Shutdown disable in Additional Sites"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-13T00:00:00"/>
-  </r>
-  <r>
-    <n v="168"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="2G Neighbor Audit Additional Site Package-A"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-14T00:00:00"/>
-  </r>
-  <r>
-    <n v="169"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-2G Neighbor Audit Additional Site Package-B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="170"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - Implementation Solution for 2G Data Drop Optimisation in TTCHBSC02."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-15T00:00:00"/>
-  </r>
-  <r>
-    <n v="171"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-22T00:00:00"/>
-  </r>
-  <r>
-    <n v="172"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-26T00:00:00"/>
-  </r>
-  <r>
-    <n v="173"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-03-28T00:00:00"/>
-  </r>
-  <r>
-    <n v="174"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-01T00:00:00"/>
-  </r>
-  <r>
-    <n v="175"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-05T00:00:00"/>
-  </r>
-  <r>
-    <n v="176"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="2G Data Drop Optimization in KTM"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-09T00:00:00"/>
-  </r>
-  <r>
-    <n v="177"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-17T00:00:00"/>
-  </r>
-  <r>
-    <n v="178"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - UMTS Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-19T00:00:00"/>
-  </r>
-  <r>
-    <n v="179"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="GSM Data Drop Optimization in BRTHMBSC11 of EDR Region"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-19T00:00:00"/>
-  </r>
-  <r>
-    <n v="180"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Neighbor Audit"/>
-    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
-    <s v="3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-19T00:00:00"/>
-  </r>
-  <r>
-    <n v="181"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-26T00:00:00"/>
-  </r>
-  <r>
-    <n v="182"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-04-29T00:00:00"/>
-  </r>
-  <r>
-    <n v="183"/>
-    <s v="OSS Optimization"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="RF Parameter Optimization"/>
-    <s v="Optimization of Uplink and Downlink Power congestion of Package-A Network"/>
-    <s v="2G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-05-03T00:00:00"/>
-  </r>
-  <r>
-    <n v="184"/>
-    <s v="Network RF Complain "/>
-    <s v="KTM"/>
-    <s v="Kyonjosym Municipality Lalitpur"/>
-    <m/>
-    <s v="Kyonjosym Municipality Lalitpur"/>
-    <n v="27.548224000000001"/>
-    <n v="85.400718999999995"/>
-    <s v="RF Parameter Optimization"/>
-    <s v="TRX Power increament 2G 3G"/>
-    <s v="2G 3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="NT"/>
-    <d v="2024-05-20T00:00:00"/>
-  </r>
-  <r>
-    <n v="185"/>
-    <s v="Network RF Complain "/>
-    <s v="CDR"/>
-    <s v="Timure Rashuwagadhi"/>
-    <m/>
-    <s v="Rasuwagadhi"/>
-    <n v="28.255264"/>
-    <n v="85.366857999999993"/>
-    <s v="Sector Expansion Survey "/>
-    <s v="Sector Expansion"/>
-    <s v="2G 3G"/>
-    <s v="Completed"/>
-    <m/>
-    <s v="HW"/>
-    <d v="2024-05-22T00:00:00"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="subin" refreshedDate="45452.712053935182" refreshedVersion="8" recordCount="185" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O186" sheet="RF"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="S.N." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="185"/>
+    </cacheField>
+    <cacheField name="TaskCategory" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Site/Location" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ParentSite" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Address" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Lat" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="27.548224000000001" maxValue="28.255264"/>
+    </cacheField>
+    <cacheField name="Lon" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="85.366857999999993" maxValue="85.400718999999995"/>
+    </cacheField>
+    <cacheField name="TaskType" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Task Description" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Band" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="TaskStatus" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Transmission" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Scope" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-06-02T00:00:00" maxDate="2024-05-23T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="215">
   <r>
     <n v="1"/>
@@ -10657,8 +7537,3158 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="185">
+  <r>
+    <n v="1"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR474_Sunawal"/>
+    <s v="WDR474_Sunawal"/>
+    <s v="Sunawal"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="2G 900MHz"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR013_Jaluke"/>
+    <s v="WDR013_Jaluke"/>
+    <s v="Arghakhachi"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="2G 900MHz"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="Nawalparasi"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="900MHz"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-SUN"/>
+    <s v="CDR465_RAMCHE"/>
+    <s v="CDR465_RAMCHE"/>
+    <s v="Ramche Rasuwa"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="900 MHZ"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="CDR123_Gajuri"/>
+    <s v="CDR123_Gajuri"/>
+    <s v="Dhading"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Naagdhunga Tunnel"/>
+    <s v="New Site Plan"/>
+    <s v="Dhading"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="2 Sector"/>
+    <s v="2G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="WDR-BUT"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="WDR423-Daunnedevi"/>
+    <s v="Daunne"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Naagdhunga Tunnel"/>
+    <s v="New Site Plan"/>
+    <s v="Dhading, Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-HTD"/>
+    <s v="CDR099_Ramnagar"/>
+    <s v="CDR099_Ramnagar"/>
+    <s v="Chitwan"/>
+    <m/>
+    <m/>
+    <s v="High Gain Antenna"/>
+    <s v="1 Sector"/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Sanjen Hydro"/>
+    <m/>
+    <s v="Rasuwa"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="World Bank Group"/>
+    <m/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="World Bank Group"/>
+    <m/>
+    <s v="Durbarmarg"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Network Quality Improvement"/>
+    <s v="WDR-POK"/>
+    <s v="Ghiring Rural Municipality"/>
+    <m/>
+    <s v="Tanahu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Mahotsav Restaurant"/>
+    <m/>
+    <s v="Laldurbar Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Trishuli 3A Office"/>
+    <m/>
+    <s v="Nuwakot"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Infinity Mall"/>
+    <m/>
+    <s v="Gongabu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Police Hospital"/>
+    <m/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="CCSI"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Eagle Logistic"/>
+    <m/>
+    <s v="Chhetrapati"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Himalayan Bank"/>
+    <m/>
+    <s v="Bishalbazar"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Network Quality Improvement"/>
+    <s v="WDR-POK"/>
+    <s v="Dulegauda Nagarpalika"/>
+    <m/>
+    <s v="Dulegauda"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <m/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Tandoori Fast Food Café"/>
+    <m/>
+    <s v="Newroad"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="GBIME"/>
+    <m/>
+    <s v="Kamaladi"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Park Village Resort"/>
+    <m/>
+    <s v="Budhanilkantha"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Square Hotel"/>
+    <m/>
+    <s v="Pulchwok, Lalitpur"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Radission Hotel"/>
+    <m/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Network Quality Improvement"/>
+    <s v="KTM"/>
+    <s v="Standard Chartered Bank"/>
+    <m/>
+    <s v="Baneswore, Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Madhya Bhotekoshi"/>
+    <m/>
+    <s v="Sindhupalchwok"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Network Quality Improvement"/>
+    <s v="CDR-TTC"/>
+    <s v="Department of Road"/>
+    <m/>
+    <s v="Babarmahal Kathmandu"/>
+    <m/>
+    <m/>
+    <s v="Repeater"/>
+    <m/>
+    <s v="2G/3G"/>
+    <s v="Planned"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Samanya Prasasan Mantralaya"/>
+    <m/>
+    <s v="Singhdurbar"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Bidhan Bista"/>
+    <m/>
+    <s v="Jhamsikhel"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Green Law Firm (Action)"/>
+    <m/>
+    <s v="Putalisadak"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Others"/>
+    <s v="KTM"/>
+    <s v="Bindu Suwal"/>
+    <m/>
+    <s v="Choche, Bhaktapur"/>
+    <m/>
+    <m/>
+    <s v="Repeater Dismantled"/>
+    <m/>
+    <m/>
+    <s v="Dismantled"/>
+    <s v="-"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="MWDR"/>
+    <s v="Jajarkot Rimna"/>
+    <s v="MWDR098-NT jajarkot"/>
+    <s v="Rimna"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="2G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Prime Minister Office"/>
+    <s v="KTM289-Singhadurbar"/>
+    <s v="Singhdurbar"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Godawari Conference Hall"/>
+    <s v="KTM445-GodawariKunda"/>
+    <s v="Godawari"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Switzerland Park"/>
+    <s v="KTM146"/>
+    <s v="Indrasthan"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Siddhalek 07, Pipaltar, Dhading"/>
+    <s v="CDR123"/>
+    <s v="Gajuri"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Army Training Center"/>
+    <s v="CDR625_Zerokilo"/>
+    <s v="Paanch Khal"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Alle Barrack"/>
+    <s v="CDR102-Alle Barrack"/>
+    <s v="Shivapuri National Park"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="2G/4G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Ranjana Trade Mall"/>
+    <s v="KTM099_CrystalHotel"/>
+    <s v="Bishal Bazar"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Radhe Radhe"/>
+    <s v="KTM043"/>
+    <s v="Thimi"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Ullens School"/>
+    <s v="KTM345_Dholahiti"/>
+    <s v="Satdobato, Lalitpur"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="CG Hotel And Resort"/>
+    <s v="KTM383_SachalSanepa"/>
+    <s v="Jhamsikhel"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Timure Bazar"/>
+    <m/>
+    <s v="Rasuwa"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="MWDR"/>
+    <s v="Guranse Nagarpalika"/>
+    <m/>
+    <s v="Dailekh"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="1 Sector"/>
+    <s v="1800MHz"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Panchkhal Army Camp"/>
+    <s v="CDR625_Zerokilo"/>
+    <s v="Kabhre"/>
+    <m/>
+    <m/>
+    <s v="Sector Expansion"/>
+    <s v="2 Sector"/>
+    <s v="2G/3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="District Court Bhaktapur"/>
+    <s v="KTM688-Chokha"/>
+    <s v="Libali"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Sankata Club"/>
+    <s v="KTM742-Nepal Airlines"/>
+    <s v="Tehbhal Sankata"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Akash Galli"/>
+    <s v="KTM299-NTSundhara"/>
+    <s v=" Sundhara"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Army Training Center"/>
+    <s v="CDR625_Zerokilo"/>
+    <s v="Paanch Khal"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="3"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Manmohan Cardiology"/>
+    <s v="KTM200-Maharajgunj1"/>
+    <s v="Maharajgunj"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="NIMB"/>
+    <s v="KTM225-Narayanhitipalace"/>
+    <s v="Lazimpat"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="2"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Green Law Firm"/>
+    <s v="KTM174_Khasibazar"/>
+    <s v="Putalisadak"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Civil Hospital"/>
+    <s v="KTM237_NewBaneshworChowk"/>
+    <s v="Minbhawan"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Santenswor Temple"/>
+    <m/>
+    <s v="Bajrabarahi, Lalitpur"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="NAC"/>
+    <m/>
+    <s v="Sinamangal"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="4"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Mercur Hotle"/>
+    <m/>
+    <s v="Sukhedhara"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Siddhartha Hotel"/>
+    <m/>
+    <s v="Chumlingtar"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Hams Hospital"/>
+    <m/>
+    <s v="Mandikhatar"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="2"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-HTD"/>
+    <s v="Hetauda Hospital"/>
+    <m/>
+    <s v="Hetauda"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-HTD"/>
+    <s v="Churia Mai Temple"/>
+    <m/>
+    <s v="Hetauda"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Furke Khola"/>
+    <m/>
+    <s v="Dhading"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Hilton Hotel"/>
+    <m/>
+    <s v="Naxal"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Kanti Children Hospital"/>
+    <m/>
+    <s v="Maharajgunj"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Nabil Bank"/>
+    <m/>
+    <s v="Sallaghari"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Royal Resort"/>
+    <m/>
+    <s v="Shivapuri National Park"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <n v="1"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Trade Tower"/>
+    <m/>
+    <s v="Maitighar"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <m/>
+    <s v="3G/4G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="CCS"/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="CDR-TTC"/>
+    <s v="Panchkhal Army Camp"/>
+    <m/>
+    <s v="Kabhre"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="2 Sector"/>
+    <s v="4G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Doleshwor Temple"/>
+    <s v="KTM390-sipadole"/>
+    <s v="Sipadol"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Sky Walk Wonder Nepal"/>
+    <s v="KTM604"/>
+    <s v="Kamaladi"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G "/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Hotel Mount Fuji"/>
+    <s v="KTM299-NTSundhara"/>
+    <s v="Sundhara"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Installed"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Network Coverage Expansion"/>
+    <s v="KTM"/>
+    <s v="Tamrakar House"/>
+    <s v="KTM099_CrystalHotel"/>
+    <s v="Newroad"/>
+    <m/>
+    <m/>
+    <s v="Small Cell"/>
+    <s v="1 Sector"/>
+    <s v="3G"/>
+    <s v="Planned"/>
+    <s v="Fiber"/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Network Quality Test"/>
+    <s v="FWDR"/>
+    <s v="Bhimdatta Mahendranagar"/>
+    <m/>
+    <s v="Bhimdatta"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Ghubhakot Municipality and Ramghat"/>
+    <m/>
+    <s v="Ghubhakot, Ramghat"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Network Quality Test"/>
+    <s v="FWDR"/>
+    <s v="Kailari Ratnapur Area"/>
+    <m/>
+    <s v="Kailari"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Network Quality Test"/>
+    <s v="FWDR"/>
+    <s v="Bajura"/>
+    <m/>
+    <s v="Bajure"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Kohalpur-Birendranagar Highway"/>
+    <m/>
+    <s v="Kohalpur-Birendranagar"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="First Quarter "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Baglung"/>
+    <m/>
+    <s v="Baglung"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Pokhara-Butwal Highway"/>
+    <m/>
+    <s v="Pokhara-Butwal"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Bhairahawa Village"/>
+    <m/>
+    <s v="Bhairahawa"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Rolpa"/>
+    <m/>
+    <s v="Rolpa"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Pyuthan"/>
+    <m/>
+    <s v="Pyuthan"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Network Quality Test"/>
+    <s v="MWDR"/>
+    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
+    <m/>
+    <s v="Rajpur-Keruhiya-Pirari-Bhaluwang"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Second Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+ HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Besisahar City"/>
+    <m/>
+    <s v="Besisahar City"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Third Quarter"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="Network Quality Test"/>
+    <s v="KTM "/>
+    <s v="KTM Valley DT"/>
+    <m/>
+    <s v="Kathmandu Bhaktapur Lalitpur "/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR"/>
+    <s v="Bharatpur"/>
+    <m/>
+    <s v="Bharatpur City"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="Network Quality Test"/>
+    <s v="WDR"/>
+    <s v="Prithvi Highway"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR"/>
+    <s v="Mugling- Bharatpur Highway"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR +EDR"/>
+    <s v="Mahendra Highway (Bharatpur-Kakadvitta)"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="On Demand "/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT+HW"/>
+    <m/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="Network Quality Test"/>
+    <s v="CDR+WDR"/>
+    <s v="Kathmandu to Butwal Highway"/>
+    <m/>
+    <s v="Major Highway"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Highway Coverage Test"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="Network Quality Test"/>
+    <s v="KTM"/>
+    <s v="Kathmandu Ringroad DT"/>
+    <m/>
+    <s v="City Roads"/>
+    <m/>
+    <m/>
+    <s v="Drive Test"/>
+    <s v="Ringroad Coverage Test"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="Network Expansion"/>
+    <s v="KTM"/>
+    <s v="Gongabu Ganesthan"/>
+    <m/>
+    <s v="Gongabu Ganeshthan"/>
+    <m/>
+    <m/>
+    <s v="Site Survey"/>
+    <s v="Site Survey"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="Network Expansion"/>
+    <s v="KTM"/>
+    <s v="Kirtipur Tyangla Phat"/>
+    <m/>
+    <s v="Kirtipur Tyangla Phat"/>
+    <m/>
+    <m/>
+    <s v="Site Survey"/>
+    <s v="Site Survey"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="Network Expansion"/>
+    <s v="KTM"/>
+    <s v="Shankarapur Wardno 4"/>
+    <m/>
+    <s v="Shankarapur Municipalit"/>
+    <m/>
+    <m/>
+    <s v="Site Survey"/>
+    <s v="Site Survey"/>
+    <s v="2G 3G 4G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <m/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily maintenance and Cell parameter changes for Pkg A and B Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-02T00:00:00"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-July 2023"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-12T00:00:00"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-20T00:00:00"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for PS Call Drop Optimization in CDRHTD and CDRTTC UMTS Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation Solution for TRX Addition and GSM Congestion Optimization in PKG-A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-06-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for WCDMA Networks of Package-A and B July _Monthly."/>
+    <m/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A and B_Monthly-August 2023"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for UL Power Congestion Optimization in Pkg A Network"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-07T00:00:00"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NT WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-14T00:00:00"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-26T00:00:00"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B."/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-07-27T00:00:00"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="WCDMA Implementation solution for Daily Maintenance and Cell Parameter Changes- August"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-02T00:00:00"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for Networks of Package- A Monthly- 2023"/>
+    <m/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit FWDR ATRHBSC09"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-04T00:00:00"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit FWDR ATRHMBSC04"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-11T00:00:00"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit MWDR NPJHBSC10"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-11T00:00:00"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in TTCHMBSC02"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-11T00:00:00"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit MWDR NPJHMBSC05"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit for HTDHBSC07"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit CDR TTCHMBSC02"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit for HTDHBSC08"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit CDR HTDHMBSC03"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-24T00:00:00"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit BRTHBSC11"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHBSC07"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-30T00:00:00"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit for BRTHMBSC06"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-08-30T00:00:00"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit for NPJHMBSC05"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit ATRHMBSC04"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in HTDHMBSC03"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-08T00:00:00"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit BRTHMBSC06"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-12T00:00:00"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit TTCHMBSC02"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-12T00:00:00"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="3G Neighbor Audit HTDHMBSC03"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-14T00:00:00"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for PKG A WCDMA Network"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-21T00:00:00"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHBSC10"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHBSC09"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-09-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in NPJHMBSC05"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Voice Quality Index Feature Enable in ATRHMBSC04"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Feature Implementation"/>
+    <s v="Implementation Solution for Optimization of TBF Establishments Failure Due to No Channel"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-18T00:00:00"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-10-27T00:00:00"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Optimization of TBF Establishments Failure Due to No Channel in CDR region"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Optimization of TBF Establishments Failure Due to No Channel in FWDR"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-11-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2023-12-25T00:00:00"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Cell Optimization and RF Parameter Changes for daily maintenance january 2024"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Cell Optimization and RF Parameter Changes for GSM Network-PKG B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance february 2024"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-01-31T00:00:00"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS 3G Cell Optimization and RF Parameter Changes Monthly"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - 2G Data Drop Optimization in EDR region"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-02T00:00:00"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - Implementation solution for 3G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-23T00:00:00"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-02-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS -GSM Cell Optimization and RF Parameter Changes for daily maintenance march month 2024"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-2g Automatic TRX Shutdown disable in Additional Sites"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-13T00:00:00"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="2G Neighbor Audit Additional Site Package-A"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-14T00:00:00"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-2G Neighbor Audit Additional Site Package-B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - Implementation Solution for 2G Data Drop Optimisation in TTCHBSC02."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-15T00:00:00"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-22T00:00:00"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-26T00:00:00"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-03-28T00:00:00"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-01T00:00:00"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-2G Neighbor Audit, External Cell Definition and modification for BSC6900 Site Migration"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-05T00:00:00"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="2G Data Drop Optimization in KTM"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-09T00:00:00"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Implementation solution for 2G Daily Maintenance and Cell Parameter Changes for PKG A and B"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-17T00:00:00"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - UMTS Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-19T00:00:00"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="GSM Data Drop Optimization in BRTHMBSC11 of EDR Region"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-19T00:00:00"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Neighbor Audit"/>
+    <s v="NPS-3G Neighbor Audit, External Cell Definition and Parameter modification for BSC6910 migration"/>
+    <s v="3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-19T00:00:00"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS-Cell Optimization and RF Parameter Changes for NTC Network Monthly"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-26T00:00:00"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="NPS - GSM Cell Optimization and RF Parameter Changes for daily maintenance."/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-04-29T00:00:00"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <s v="OSS Optimization"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="RF Parameter Optimization"/>
+    <s v="Optimization of Uplink and Downlink Power congestion of Package-A Network"/>
+    <s v="2G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-05-03T00:00:00"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <s v="Network RF Complain "/>
+    <s v="KTM"/>
+    <s v="Kyonjosym Municipality Lalitpur"/>
+    <m/>
+    <s v="Kyonjosym Municipality Lalitpur"/>
+    <n v="27.548224000000001"/>
+    <n v="85.400718999999995"/>
+    <s v="RF Parameter Optimization"/>
+    <s v="TRX Power increament 2G 3G"/>
+    <s v="2G 3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="NT"/>
+    <d v="2024-05-20T00:00:00"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <s v="Network RF Complain "/>
+    <s v="CDR"/>
+    <s v="Timure Rashuwagadhi"/>
+    <m/>
+    <s v="Rasuwagadhi"/>
+    <n v="28.255264"/>
+    <n v="85.366857999999993"/>
+    <s v="Sector Expansion Survey "/>
+    <s v="Sector Expansion"/>
+    <s v="2G 3G"/>
+    <s v="Completed"/>
+    <m/>
+    <s v="HW"/>
+    <d v="2024-05-22T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="RF 3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000005000000}" name="RF 3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="U87:W104" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="16">
     <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10688,7 +10718,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="RF" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000004000000}" name="RF" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="R2:T19" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="16">
     <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10718,7 +10748,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000006000000}" name="RF 2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000006000000}" name="RF 2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="R87:T104" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="15">
     <pivotField name="S.N." compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -10946,8 +10976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G220" sqref="G220"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22770,7 +22800,7 @@
         <v>213</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2" t="s">
@@ -22799,21 +22829,47 @@
       <c r="AE226" s="2"/>
     </row>
     <row r="227" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="4"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
+      <c r="F227" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G227" s="2">
+        <v>27.669962999999999</v>
+      </c>
+      <c r="H227" s="2">
+        <v>85.410152999999994</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="4"/>
+      <c r="N227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O227" s="40">
+        <v>45438</v>
+      </c>
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
@@ -22832,21 +22888,39 @@
       <c r="AE227" s="2"/>
     </row>
     <row r="228" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="F228" s="2" t="s">
+        <v>432</v>
+      </c>
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="4"/>
+      <c r="I228" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
+      <c r="L228" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
-      <c r="O228" s="4"/>
+      <c r="O228" s="40">
+        <v>45427</v>
+      </c>
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
@@ -22865,21 +22939,47 @@
       <c r="AE228" s="2"/>
     </row>
     <row r="229" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="4"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G229" s="2">
+        <v>27.704535</v>
+      </c>
+      <c r="H229" s="2">
+        <v>85.310254</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
-      <c r="O229" s="4"/>
+      <c r="O229" s="40">
+        <v>45442</v>
+      </c>
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
@@ -22898,21 +22998,45 @@
       <c r="AE229" s="2"/>
     </row>
     <row r="230" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
+      <c r="F230" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G230" s="2">
+        <v>27.702166999999999</v>
+      </c>
+      <c r="H230" s="2">
+        <v>85.223557999999997</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L230" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
-      <c r="O230" s="4"/>
+      <c r="O230" s="40">
+        <v>45428</v>
+      </c>
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
@@ -22931,21 +23055,45 @@
       <c r="AE230" s="2"/>
     </row>
     <row r="231" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="4"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
+      <c r="F231" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G231" s="2">
+        <v>27.678595999999999</v>
+      </c>
+      <c r="H231" s="2">
+        <v>85.312973</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
-      <c r="O231" s="4"/>
+      <c r="O231" s="40">
+        <v>45420</v>
+      </c>
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
